--- a/Throughput.xlsx
+++ b/Throughput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin_g\Documents\_PRIVATE\Arduino\QuickESPNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494FCCA1-6458-4F58-A9D0-CFE271EE8294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32559BA5-F566-452F-9C5C-8FB66C47136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{43BFBB3A-8B50-4A0C-9248-2CDFCCB58DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{43BFBB3A-8B50-4A0C-9248-2CDFCCB58DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,22 +263,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE9AC7D-A81F-49C5-855E-7E6026A151C5}">
   <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,19 +608,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="1"/>
@@ -631,447 +631,447 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>640</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>450</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>340</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>190</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>615</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>440</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>320</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>180</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5">
-        <v>600</v>
-      </c>
-      <c r="F7" s="5">
-        <v>300</v>
-      </c>
-      <c r="G7" s="5">
-        <v>180</v>
-      </c>
-      <c r="H7" s="5">
-        <v>84</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3">
         <v>28</v>
       </c>
+      <c r="I7" s="3">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>60</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>28</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>9.5</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>570</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>285</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>157</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>550</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>375</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>270</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>150</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5">
-        <v>600</v>
-      </c>
-      <c r="F11" s="5">
-        <v>300</v>
-      </c>
-      <c r="G11" s="5">
-        <v>180</v>
-      </c>
-      <c r="H11" s="5">
-        <v>84</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3">
         <v>28</v>
       </c>
+      <c r="I11" s="3">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>60</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>28</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>9.5</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1082,12 +1082,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="C5:C8"/>
@@ -1097,6 +1091,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:I12">
     <cfRule type="colorScale" priority="1">
